--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1732795.375600626</v>
+        <v>-1735351.691427877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673314</v>
+        <v>12574568.46673313</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>177.6065387483045</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>60.48910589095099</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>34.26916962453566</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>100.67547016887</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>278.9999183401134</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>361.179412348931</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>51.06561173382016</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>210.1089145855747</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>315.8867849462306</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>4.651019870962227</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.6711793744101</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>85.12186634598243</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>152.8697920431067</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>188.7692896015406</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>14.76058440587529</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>216.4795114578129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>112.7304175246775</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>95.25381996636069</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>261.5960748803926</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308924</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>1250.80968089488</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979149</v>
+        <v>881.8471639544687</v>
       </c>
       <c r="D2" t="n">
-        <v>971.2814123723983</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E2" t="n">
-        <v>585.493159774154</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,43 +4337,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1637.409520959002</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080136</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>282.3220529184993</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>598.8818513669953</v>
       </c>
       <c r="M4" t="n">
-        <v>936.6052194007787</v>
+        <v>766.5056797247742</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.914056430626</v>
+        <v>1107.914056430639</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.24365535104</v>
+        <v>1407.243655351052</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.851155784699</v>
+        <v>1639.851155784712</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937214</v>
+        <v>1717.461451937226</v>
       </c>
       <c r="R4" t="n">
-        <v>1627.630994694742</v>
+        <v>1717.461451937226</v>
       </c>
       <c r="S4" t="n">
-        <v>1593.015671841676</v>
+        <v>1717.461451937226</v>
       </c>
       <c r="T4" t="n">
-        <v>1371.249056411202</v>
+        <v>1717.461451937226</v>
       </c>
       <c r="U4" t="n">
-        <v>1082.146189536845</v>
+        <v>1717.461451937226</v>
       </c>
       <c r="V4" t="n">
-        <v>827.4617013309582</v>
+        <v>1615.769057827257</v>
       </c>
       <c r="W4" t="n">
-        <v>538.0445312939976</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="X4" t="n">
-        <v>310.0549803959803</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1853.982617026597</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1192.938255729499</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1192.938255729499</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,10 +4565,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066531</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y5" t="n">
-        <v>2240.582457090719</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>285.7963790512222</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>118.0935424259411</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2320.807863037144</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7277411117484</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>705.0651177666796</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>554.9484783543438</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>407.0353847719507</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>260.1454372740403</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>92.44260064875928</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.927041190256</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>759.5098711532959</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X10" t="n">
-        <v>531.5203202552785</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.7277411117484</v>
+        <v>874.0013006945865</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2225.50344847599</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>652.8121879835377</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>504.8990944011446</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>358.0091469032342</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>190.8130476181141</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1978.396372297858</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>884.2351259418183</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>734.1184865294825</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>586.2053929470894</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>439.315445449179</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>272.119346164059</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6376,43 +6376,43 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
         <v>1828.279732885522</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580114</v>
@@ -6853,31 +6853,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,16 +7093,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7245,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>106.7437663446525</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>138.3747553788779</v>
+        <v>0.1932798571525609</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>229.2695069934069</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>325.7488327651026</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>155.4998557069062</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>151.462173154958</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>64.53565828418161</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>63.36835372228742</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>125.5341284403486</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9259388694754023</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>105.8542358274173</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>45.04089287986319</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>24.58839950885152</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>129.6605885985412</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1304243.382769269</v>
+        <v>1304243.382769268</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1304243.382769268</v>
+        <v>1304243.382769269</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1304243.382769268</v>
+        <v>1304243.382769269</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1304243.382769268</v>
+        <v>1304243.382769269</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101551.284536593</v>
+        <v>101551.2845365931</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10751.83355583445</v>
+        <v>10751.83355583462</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319407</v>
@@ -26424,10 +26424,10 @@
         <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26436,28 +26436,28 @@
         <v>13606.80811184277</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="M4" t="n">
         <v>21597.66737493621</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493615</v>
+        <v>21597.66737493623</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1345879.235308227</v>
+        <v>-1346239.318323945</v>
       </c>
       <c r="C6" t="n">
-        <v>-77571.51796494469</v>
+        <v>-77571.51796494484</v>
       </c>
       <c r="D6" t="n">
-        <v>-77571.51796494484</v>
+        <v>-77571.51796494481</v>
       </c>
       <c r="E6" t="n">
-        <v>-319069.8097896044</v>
+        <v>-319104.5477150399</v>
       </c>
       <c r="F6" t="n">
-        <v>6342.652017751068</v>
+        <v>6307.914092315332</v>
       </c>
       <c r="G6" t="n">
-        <v>6342.652017751083</v>
+        <v>6307.914092315332</v>
       </c>
       <c r="H6" t="n">
-        <v>6342.652017751039</v>
+        <v>6307.914092315346</v>
       </c>
       <c r="I6" t="n">
-        <v>6342.652017751054</v>
+        <v>6307.914092315317</v>
       </c>
       <c r="J6" t="n">
-        <v>-211188.5503795265</v>
+        <v>-211223.288304962</v>
       </c>
       <c r="K6" t="n">
-        <v>6342.652017751185</v>
+        <v>6307.914092315361</v>
       </c>
       <c r="L6" t="n">
-        <v>-21033.23574284096</v>
+        <v>-21033.23574284099</v>
       </c>
       <c r="M6" t="n">
         <v>-86660.54568472096</v>
       </c>
       <c r="N6" t="n">
-        <v>-1605.517749209204</v>
+        <v>-1605.517749209146</v>
       </c>
       <c r="O6" t="n">
-        <v>-1605.517749208986</v>
+        <v>-1605.517749209102</v>
       </c>
       <c r="P6" t="n">
-        <v>-1605.517749209117</v>
+        <v>-1605.517749209132</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26796,7 +26796,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>86.27297343089418</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>20.75095772333077</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>93.68940318050062</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>42.02872873825328</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>38.79625667445237</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>365.0800808075068</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>119.0838355399107</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>167.0157769778456</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>307.4984738629162</v>
+        <v>169.3169983411908</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
